--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>-8.241684462331458</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.194371835085175</v>
+        <v>-6.065199384654415</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.522585533081776</v>
+        <v>-6.504906884251011</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.85150270244051</v>
+        <v>-12.81186752377043</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.348504751311962</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.066277319730786</v>
+        <v>-6.932034969179036</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.201866682612155</v>
+        <v>-6.202903152067941</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.62688452451262</v>
+        <v>-13.58609554022195</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.441505807211399</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.186691023421686</v>
+        <v>-8.039932815290632</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.249378051344835</v>
+        <v>-6.263297053894942</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.06723248400879</v>
+        <v>-14.06458753129379</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.455589205143271</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.961755060047446</v>
+        <v>-8.772599384366506</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.786462436150993</v>
+        <v>-5.778904031534743</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.99261881477158</v>
+        <v>-14.97273033483697</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.350779274487472</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.01072081738525</v>
+        <v>-9.76998123025149</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.425795510571811</v>
+        <v>-5.43766601924468</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.64447010033735</v>
+        <v>-15.64883109446264</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.091702594676676</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.8774635107794</v>
+        <v>-10.64186226986277</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.440447864151954</v>
+        <v>-5.450176987817115</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.09116887975363</v>
+        <v>-16.0700581481023</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.664263590093464</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.92853643007684</v>
+        <v>-11.65575918094419</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.989153418280769</v>
+        <v>-5.020853738805846</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.19229056234769</v>
+        <v>-17.17070559703026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.067794820131943</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.40990804619329</v>
+        <v>-12.12640431599463</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.592870077676111</v>
+        <v>-4.626746006256965</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.63580170928675</v>
+        <v>-17.58779655086051</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.324189626866189</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.17848925971352</v>
+        <v>-12.85483700512375</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.430711497914277</v>
+        <v>-4.464269641048781</v>
       </c>
       <c r="G10" t="n">
-        <v>-18.29377403144989</v>
+        <v>-18.23909537865032</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.479919911640379</v>
       </c>
       <c r="E11" t="n">
-        <v>-13.61956568123285</v>
+        <v>-13.28146641135135</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.551499301568277</v>
+        <v>-4.597299517897536</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.66911286663669</v>
+        <v>-18.62553225942501</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.596409128230565</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.5382051825193</v>
+        <v>-14.18048632808087</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.078786116613138</v>
+        <v>-4.122342278790483</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.72574223317616</v>
+        <v>-18.68109582246749</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.74244999891744</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.21639354807715</v>
+        <v>-14.85752577702499</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.236872153654833</v>
+        <v>-4.289096525007218</v>
       </c>
       <c r="G13" t="n">
-        <v>-18.52602141365582</v>
+        <v>-18.44458522627362</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.997379956500248</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.89704597309591</v>
+        <v>-15.51210023941563</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.076644731605429</v>
+        <v>-4.149442043853792</v>
       </c>
       <c r="G14" t="n">
-        <v>-18.12092319367012</v>
+        <v>-18.03149836906737</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.429103049210413</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.29673206247994</v>
+        <v>-15.88952179152773</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.908658455658231</v>
+        <v>-4.002639834660937</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.09385040908236</v>
+        <v>-16.9889714337733</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.084711626572492</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.2738880869565</v>
+        <v>-16.83438103664145</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.829818330922361</v>
+        <v>-3.916940433290785</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.29352976298211</v>
+        <v>-16.20584542482399</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.994810706610162</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.95610499417268</v>
+        <v>-17.51320986209885</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.55115960652881</v>
+        <v>-3.635260302653481</v>
       </c>
       <c r="G17" t="n">
-        <v>-15.21608554064453</v>
+        <v>-15.1538631502493</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.16088231978148</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.75403980492187</v>
+        <v>-18.28639163108085</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.02567448145219</v>
+        <v>-3.101840319431858</v>
       </c>
       <c r="G18" t="n">
-        <v>-13.98829457913558</v>
+        <v>-13.90901933278855</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.554589049450559</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.16120353937106</v>
+        <v>-19.66978990314997</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.076011696153946</v>
+        <v>-3.155516725823718</v>
       </c>
       <c r="G19" t="n">
-        <v>-13.01200390887447</v>
+        <v>-12.93791100980637</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.133694320785426</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.25917670154282</v>
+        <v>-20.79383613894299</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.842703399457898</v>
+        <v>-2.89675625937851</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.48431637714208</v>
+        <v>-11.43141732284206</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.840625088349746</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.07043405600435</v>
+        <v>-21.56836238481339</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.47706924290193</v>
+        <v>-2.545916237601826</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.64765085399319</v>
+        <v>-10.63236292952035</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.606371153999442</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.77068650955258</v>
+        <v>-22.28276362423447</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.765530426063646</v>
+        <v>-2.848521317629527</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.795408954966316</v>
+        <v>-9.781529064471144</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.364807744511041</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.12032872464687</v>
+        <v>-22.62723327006356</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.547602944970912</v>
+        <v>-2.629938709616626</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.728642323626074</v>
+        <v>-8.743495126487762</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.057749717802442</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.81132139918916</v>
+        <v>-23.2956387328807</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.333664893481581</v>
+        <v>-2.426653804090303</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.253645972464085</v>
+        <v>-8.265702263397898</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.634511288681354</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.14876065314363</v>
+        <v>-23.65389048906763</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.628232446220073</v>
+        <v>-2.707170351093282</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.863850343971824</v>
+        <v>-7.899178307592151</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.057972701778912</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.73019557280523</v>
+        <v>-24.2348120630082</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.618337096321437</v>
+        <v>-2.667623174546807</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.813156231768782</v>
+        <v>-7.850307794950469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.306699381955713</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.35915906366132</v>
+        <v>-23.86867922775181</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.568992350013665</v>
+        <v>-2.637091326662923</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.873990144213805</v>
+        <v>-7.914798684531944</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.370304473211973</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.48830218005087</v>
+        <v>-23.97155371024543</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.496820830644266</v>
+        <v>-2.562084183310714</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.245965342676163</v>
+        <v>-8.287776129402019</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.250850301300805</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.39504926307134</v>
+        <v>-23.89494786164774</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.845905698955728</v>
+        <v>-2.923381790775729</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.675762825353521</v>
+        <v>-8.715613120325745</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.963363138705501</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.45115061686919</v>
+        <v>-23.93593729521995</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.862591879392508</v>
+        <v>-2.924677377595461</v>
       </c>
       <c r="G30" t="n">
-        <v>-9.339416173496025</v>
+        <v>-9.38073805953519</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.531616809514021</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.26777863631181</v>
+        <v>-23.78081399633961</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.813535584489884</v>
+        <v>-2.889393415036936</v>
       </c>
       <c r="G31" t="n">
-        <v>-10.04434251760902</v>
+        <v>-10.09890383424379</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.984948750463862</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.0143960774202</v>
+        <v>-23.53482361583078</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.834377420763542</v>
+        <v>-2.915231816328582</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.17363719321146</v>
+        <v>-10.2224099257158</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.355882982517127</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.00734612951812</v>
+        <v>-23.52375490428409</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.695285175399812</v>
+        <v>-2.759306720322063</v>
       </c>
       <c r="G33" t="n">
-        <v>-11.02044740560919</v>
+        <v>-11.04169014044594</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.679812917167002</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.1864672095425</v>
+        <v>-22.71434559441825</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.043260239152483</v>
+        <v>-3.130387230527774</v>
       </c>
       <c r="G34" t="n">
-        <v>-11.13353991245467</v>
+        <v>-11.16344596745959</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.991187046511425</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83749478838897</v>
+        <v>-22.3581081090605</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.837965951803858</v>
+        <v>-2.884851527657572</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.46443767522121</v>
+        <v>-11.48171542548888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.320598435402253</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.59077105685011</v>
+        <v>-22.09545599314922</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.956509701305944</v>
+        <v>-3.030279925920824</v>
       </c>
       <c r="G36" t="n">
-        <v>-11.2674009204708</v>
+        <v>-11.28669783057451</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.699264251848826</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.09420440739129</v>
+        <v>-21.59889912170414</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.990434519955467</v>
+        <v>-3.039999271572251</v>
       </c>
       <c r="G37" t="n">
-        <v>-11.44703281077499</v>
+        <v>-11.46732218927269</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.152045074884867</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.70479989944839</v>
+        <v>-21.21827038108734</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.060718882674236</v>
+        <v>-3.12457909036988</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.3546599150315</v>
+        <v>-11.35060692833883</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.693037412450371</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.2686662638715</v>
+        <v>-20.81021920095402</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.943646724239091</v>
+        <v>-3.020844142667678</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.37746224305879</v>
+        <v>-11.3717127709833</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.333104646061221</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.69591422040555</v>
+        <v>-20.23476353669066</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.096477078898852</v>
+        <v>-3.146824071614343</v>
       </c>
       <c r="G40" t="n">
-        <v>-11.36509794469236</v>
+        <v>-11.34408499317836</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.072413232397841</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.10128387121015</v>
+        <v>-19.64047541797595</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.919309248055589</v>
+        <v>-2.953165620608975</v>
       </c>
       <c r="G41" t="n">
-        <v>-11.51450110553842</v>
+        <v>-11.50848273808525</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.9009034744961069</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.05868595437872</v>
+        <v>-19.59789705717199</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.64332481041824</v>
+        <v>-2.687927220065105</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.46393899652078</v>
+        <v>-11.44463230840334</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8059392905432893</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.57722144713181</v>
+        <v>-19.12660657321512</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.868986700374433</v>
+        <v>-2.915432265610125</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.67945130822126</v>
+        <v>-11.63282973873836</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.7706815110561659</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.35660501226227</v>
+        <v>-18.92213363902014</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.658241170369197</v>
+        <v>-2.672981526072946</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.6709786593209</v>
+        <v>-11.6282731843384</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.7733166431409232</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.94738047048089</v>
+        <v>-18.500593688941</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.693930920497676</v>
+        <v>-2.727503730652781</v>
       </c>
       <c r="G45" t="n">
-        <v>-11.37211855855325</v>
+        <v>-11.31711234229359</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.7909913155889651</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.72797162030747</v>
+        <v>-18.30608943974765</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.760299188716047</v>
+        <v>-2.77742537977085</v>
       </c>
       <c r="G46" t="n">
-        <v>-11.19391914726107</v>
+        <v>-11.11006290147975</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.8039216160042585</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.16375089382429</v>
+        <v>-17.75579749382831</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.816659659877842</v>
+        <v>-2.861614078019125</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.26131410692149</v>
+        <v>-11.17588360092902</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7959521807157929</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.42831714686174</v>
+        <v>-17.02936440850775</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.821279771367077</v>
+        <v>-2.85762953742259</v>
       </c>
       <c r="G48" t="n">
-        <v>-10.85518430648687</v>
+        <v>-10.77362589393299</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.757249451719785</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.35525582824257</v>
+        <v>-16.96173966552458</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.777880057409473</v>
+        <v>-2.808074563819539</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.49856058958662</v>
+        <v>-10.40216893019853</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.6859935325969986</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.648476550527</v>
+        <v>-16.28096012632728</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.940781766215079</v>
+        <v>-2.979302251319502</v>
       </c>
       <c r="G50" t="n">
-        <v>-10.57740071432249</v>
+        <v>-10.51533966115388</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5852082123950526</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.0995388595098</v>
+        <v>-15.74622988926532</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.915882054241881</v>
+        <v>-2.934210940985945</v>
       </c>
       <c r="G51" t="n">
-        <v>-10.2669487782734</v>
+        <v>-10.21479774202401</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.4639973536415666</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.54299387380767</v>
+        <v>-15.20641508506177</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.974212795171043</v>
+        <v>-3.001053442870406</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.709543327362688</v>
+        <v>-9.673252229389579</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3379997465629809</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.23799318041518</v>
+        <v>-14.94604613535735</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.893128616283259</v>
+        <v>-2.919162577849581</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.670494829516638</v>
+        <v>-9.638481612552079</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2252094978595141</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.71119780149822</v>
+        <v>-14.41588223070909</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.942615143790172</v>
+        <v>-2.961814273756547</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.561484643405036</v>
+        <v>-9.526415797148655</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1434312736229721</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.29051342762079</v>
+        <v>-13.99064619143856</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.936352325993654</v>
+        <v>-2.974892367125545</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.707230827114637</v>
+        <v>-9.714324776078531</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1091944866548442</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.0648515376646</v>
+        <v>-13.78821197310708</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.092257865972705</v>
+        <v>-3.131443256011028</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.52021164743454</v>
+        <v>-9.534311543238722</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1340739899187291</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.70081608635411</v>
+        <v>-13.42223069706356</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.182288927426943</v>
+        <v>-3.222202779488437</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.685244963234121</v>
+        <v>-9.712193169084555</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2238693934513155</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.48378818252489</v>
+        <v>-13.23626265385985</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.109476948157979</v>
+        <v>-3.14323065156716</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.924175617827121</v>
+        <v>-9.932090919944656</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3812541871132595</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.32606882099821</v>
+        <v>-13.07546321800702</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.287207014790938</v>
+        <v>-3.323498112764048</v>
       </c>
       <c r="G59" t="n">
-        <v>-10.16057376686306</v>
+        <v>-10.20087873947391</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6021401052100869</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.08634614729277</v>
+        <v>-12.82836792194627</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.317166848871393</v>
+        <v>-3.351341006871129</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.64217027729538</v>
+        <v>-10.64270806805074</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.8745913211216578</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.63321343483963</v>
+        <v>-12.39484501603632</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.473668847688208</v>
+        <v>-3.517674798497309</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.97923796672797</v>
+        <v>-10.9634660305753</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.182108682168864</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.37770904696779</v>
+        <v>-12.15362630622961</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.439489800681605</v>
+        <v>-3.466012662934619</v>
       </c>
       <c r="G62" t="n">
-        <v>-11.48737689544077</v>
+        <v>-11.46904311968984</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.505148199684892</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.16879689453764</v>
+        <v>-11.95764557696245</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.545556804659325</v>
+        <v>-3.553799670236943</v>
       </c>
       <c r="G63" t="n">
-        <v>-11.84618599841053</v>
+        <v>-11.82131562047853</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.822423698142987</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.28927669075903</v>
+        <v>-12.09535423338285</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.691650107856478</v>
+        <v>-3.703540172556814</v>
       </c>
       <c r="G64" t="n">
-        <v>-12.23684209211137</v>
+        <v>-12.19688912799494</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.114695762874567</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.36780391905542</v>
+        <v>-12.18366436441993</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.708170062059783</v>
+        <v>-3.700274315969716</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.62912133609202</v>
+        <v>-12.58885058652924</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.366531256957617</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.41039205787311</v>
+        <v>-12.24893749510011</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.814285956106172</v>
+        <v>-3.817170470157652</v>
       </c>
       <c r="G66" t="n">
-        <v>-12.88531996293896</v>
+        <v>-12.82503361926304</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.565982961304174</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.34557360483156</v>
+        <v>-12.18186520989291</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.921472542656415</v>
+        <v>-3.936887581307798</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.05324268179689</v>
+        <v>-12.98407301264378</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.705838511725037</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.32754783651324</v>
+        <v>-12.18178209677617</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.739968162722198</v>
+        <v>-3.745898528051766</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.40309023517959</v>
+        <v>-13.32104292193903</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.785030951458017</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.63165384164908</v>
+        <v>-12.50457388615736</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.538922422340921</v>
+        <v>-3.572671236743235</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.74496381836235</v>
+        <v>-13.64228000713654</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.805980375476282</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.59826192474805</v>
+        <v>-12.48352182258843</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.467112689479675</v>
+        <v>-3.486111370164506</v>
       </c>
       <c r="G70" t="n">
-        <v>-14.12019509539808</v>
+        <v>-14.01735483595252</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.77475425288029</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.92281375660134</v>
+        <v>-12.80681229067005</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.453648364568191</v>
+        <v>-3.470339434011839</v>
       </c>
       <c r="G71" t="n">
-        <v>-14.8485837834654</v>
+        <v>-14.75418194987214</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.70183375164669</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.2732431018012</v>
+        <v>-13.16017503999006</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.463054813780135</v>
+        <v>-3.470520327265914</v>
       </c>
       <c r="G72" t="n">
-        <v>-15.02841123404427</v>
+        <v>-14.9438509712741</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.599369625225957</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.72851231025519</v>
+        <v>-13.62694808160189</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.584003954660744</v>
+        <v>-3.596446477137043</v>
       </c>
       <c r="G73" t="n">
-        <v>-15.07534569996665</v>
+        <v>-14.98465462258538</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.480289935283008</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.24886886712841</v>
+        <v>-14.15512216045532</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.596035800560222</v>
+        <v>-3.616833635772078</v>
       </c>
       <c r="G74" t="n">
-        <v>-15.31941958978364</v>
+        <v>-15.23397441677057</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.358292887072773</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.84417389927144</v>
+        <v>-14.7349779308989</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.516403656711911</v>
+        <v>-3.519429951962532</v>
       </c>
       <c r="G75" t="n">
-        <v>-15.57816050020138</v>
+        <v>-15.50653166059421</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.248833006309267</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.06428676643369</v>
+        <v>-14.95717351498645</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.515147181947114</v>
+        <v>-3.523492716668938</v>
       </c>
       <c r="G76" t="n">
-        <v>-15.54774598848231</v>
+        <v>-15.48678496185874</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.163934105101875</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.86400117568243</v>
+        <v>-15.76651926776302</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.672006078265213</v>
+        <v>-3.692373680872781</v>
       </c>
       <c r="G77" t="n">
-        <v>-15.61608452646804</v>
+        <v>-15.54882156999303</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.109868954260635</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.33805883752597</v>
+        <v>-16.25932627094118</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.613963788741199</v>
+        <v>-3.62966727879773</v>
       </c>
       <c r="G78" t="n">
-        <v>-15.62129131878131</v>
+        <v>-15.55775378553888</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.090770631361493</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.30608219717513</v>
+        <v>-17.21337195995783</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.514115601498195</v>
+        <v>-3.554141900717628</v>
       </c>
       <c r="G79" t="n">
-        <v>-15.61089729018225</v>
+        <v>-15.54567304957073</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.105885659570794</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.02121678762625</v>
+        <v>-17.9349404834458</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.842177740281922</v>
+        <v>-3.8811186799769</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.47205438416873</v>
+        <v>-15.40798394917781</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.151192281108903</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.50458800755127</v>
+        <v>-18.4344356480179</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.667141516432633</v>
+        <v>-3.680464060144976</v>
       </c>
       <c r="G81" t="n">
-        <v>-15.2436644283808</v>
+        <v>-15.1610891023986</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.225868419250566</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.23968930204686</v>
+        <v>-19.17797047935893</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.795756620080565</v>
+        <v>-3.833714869395292</v>
       </c>
       <c r="G82" t="n">
-        <v>-15.37407868655575</v>
+        <v>-15.30855621652536</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.327824347319583</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.11433751954482</v>
+        <v>-20.05326893477018</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.942069928586728</v>
+        <v>-3.984213167779535</v>
       </c>
       <c r="G83" t="n">
-        <v>-15.23981189096967</v>
+        <v>-15.1597739595514</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.452517498128884</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.9195276164845</v>
+        <v>-20.8650151899184</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.074918912181408</v>
+        <v>-4.107929486546817</v>
       </c>
       <c r="G84" t="n">
-        <v>-15.02138084216964</v>
+        <v>-14.92176243824938</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.596542137271901</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.18401057452965</v>
+        <v>-22.11180972111905</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.833612200251087</v>
+        <v>-3.862594232958159</v>
       </c>
       <c r="G85" t="n">
-        <v>-15.02448536153013</v>
+        <v>-14.92398204736696</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.755903645732384</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.43183668617922</v>
+        <v>-23.36625065905956</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.139448913817819</v>
+        <v>-4.155118180826281</v>
       </c>
       <c r="G86" t="n">
-        <v>-14.64804161079142</v>
+        <v>-14.53615668864207</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.92407108770398</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.42762960483246</v>
+        <v>-24.34225776692239</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.988153707314269</v>
+        <v>-4.024645254568922</v>
       </c>
       <c r="G87" t="n">
-        <v>-14.91455604212755</v>
+        <v>-14.80815658568288</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.095222677067761</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.48681827552898</v>
+        <v>-25.40863816672015</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.768275512481635</v>
+        <v>-3.783983891545033</v>
       </c>
       <c r="G88" t="n">
-        <v>-14.63330614409453</v>
+        <v>-14.53671403542489</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.26642590141193</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.89608183842752</v>
+        <v>-26.82972334822288</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.033621471176577</v>
+        <v>-4.055578001015893</v>
       </c>
       <c r="G89" t="n">
-        <v>-14.40820160092117</v>
+        <v>-14.27799757004149</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.434250636013938</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.53238599121871</v>
+        <v>-28.43952663929197</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.931074552143036</v>
+        <v>-3.970431057421702</v>
       </c>
       <c r="G90" t="n">
-        <v>-14.45008572275003</v>
+        <v>-14.32692675076558</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.597073721140464</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.85103181183898</v>
+        <v>-29.75986650079162</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.748181694258615</v>
+        <v>-3.804566610454745</v>
       </c>
       <c r="G91" t="n">
-        <v>-14.14901579087854</v>
+        <v>-14.01356096662379</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.758956863033787</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.6361304441213</v>
+        <v>-31.54071903061002</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.787161746008528</v>
+        <v>-3.836780276700848</v>
       </c>
       <c r="G92" t="n">
-        <v>-14.05503441187583</v>
+        <v>-13.93387015469308</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.923612842103715</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.49638288996184</v>
+        <v>-33.39642714456776</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.670549154218873</v>
+        <v>-3.721218821387579</v>
       </c>
       <c r="G93" t="n">
-        <v>-14.17283503233415</v>
+        <v>-14.08218795601468</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.092784270751895</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.0355546988246</v>
+        <v>-34.93917281745024</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.607720526972149</v>
+        <v>-3.685377512046226</v>
       </c>
       <c r="G94" t="n">
-        <v>-14.27790956791789</v>
+        <v>-14.16491484120975</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.271948356114091</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.2212634427888</v>
+        <v>-37.14795767382628</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.370481468755101</v>
+        <v>-3.46379305381704</v>
       </c>
       <c r="G95" t="n">
-        <v>-14.09293888211503</v>
+        <v>-13.95671159477531</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.462396682173705</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.07636531989504</v>
+        <v>-38.98537112408802</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.397987021388364</v>
+        <v>-3.501629077960094</v>
       </c>
       <c r="G96" t="n">
-        <v>-14.01093556993626</v>
+        <v>-13.89840529888048</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.659558360820322</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.11590253655222</v>
+        <v>-41.02611103643446</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.48670782900227</v>
+        <v>-3.584541745416105</v>
       </c>
       <c r="G97" t="n">
-        <v>-14.27646731089215</v>
+        <v>-14.11631322394575</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.858441796156012</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.39938163984098</v>
+        <v>-43.27378305342994</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.277834788627063</v>
+        <v>-3.385974731516354</v>
       </c>
       <c r="G98" t="n">
-        <v>-14.18673447885679</v>
+        <v>-14.04339857553258</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.048931439201063</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.48803381948319</v>
+        <v>-45.3780971665703</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.1637204793464</v>
+        <v>-3.29005730579435</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.58380983857389</v>
+        <v>-14.42880387585835</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.217730155043054</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.9432001769174</v>
+        <v>-47.83306796372984</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.774628867842975</v>
+        <v>-2.910142360180123</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.00722716728992</v>
+        <v>-14.86203344135628</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.345599697426781</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.05059680888736</v>
+        <v>-49.90479073484363</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.29590220444153</v>
+        <v>-2.434671775352044</v>
       </c>
       <c r="G101" t="n">
-        <v>-15.07973602813314</v>
+        <v>-14.94428120387839</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.421182870851874</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.29887017372746</v>
+        <v>-52.17536652675889</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.32838965507218</v>
+        <v>-2.473094480319128</v>
       </c>
       <c r="G102" t="n">
-        <v>-15.93618247306557</v>
+        <v>-15.8029032568666</v>
       </c>
     </row>
   </sheetData>
